--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="628">
   <si>
     <t>Architecture</t>
   </si>
@@ -1914,6 +1914,15 @@
   </si>
   <si>
     <t>New Knowledge</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Grounded theory</t>
+  </si>
+  <si>
+    <t>Methods of intent</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2010,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2128,6 +2137,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2147,7 +2162,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1449">
+  <cellStyleXfs count="1655">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3597,8 +3612,214 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3702,8 +3923,17 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1449">
+  <cellStyles count="1655">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4428,6 +4658,109 @@
     <cellStyle name="Followed Hyperlink" xfId="1444" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1446" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1654" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5152,6 +5485,109 @@
     <cellStyle name="Hyperlink" xfId="1443" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1653" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -41938,7 +42374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -42507,7 +42943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -43281,21 +43717,21 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="C1" s="10" t="s">
         <v>243</v>
       </c>
       <c r="F1" s="75"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="44"/>
       <c r="C2" s="10" t="s">
         <v>239</v>
@@ -43303,14 +43739,14 @@
       <c r="E2" s="88"/>
       <c r="F2" s="75"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="C3" s="10" t="s">
         <v>396</v>
       </c>
       <c r="E3" s="89"/>
       <c r="F3" s="76"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="44"/>
       <c r="C4" s="10" t="s">
         <v>190</v>
@@ -43318,7 +43754,7 @@
       <c r="E4" s="89"/>
       <c r="F4" s="75"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>203</v>
@@ -43326,153 +43762,174 @@
       <c r="E5" s="89"/>
       <c r="F5" s="75"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="E6" s="88"/>
       <c r="F6" s="75"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="44"/>
       <c r="E7" s="89"/>
       <c r="F7" s="76"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="10"/>
       <c r="E8" s="89"/>
       <c r="F8" s="75"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="E9" s="88"/>
       <c r="F9" s="75"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="10"/>
       <c r="E10" s="87"/>
       <c r="F10" s="75"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="72"/>
       <c r="E11" s="87"/>
       <c r="F11" s="76"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="72"/>
       <c r="E12" s="89"/>
       <c r="F12" s="75"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="72"/>
       <c r="E13" s="89"/>
       <c r="F13" s="75"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="73"/>
       <c r="E14" s="89"/>
       <c r="F14" s="75"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="73"/>
       <c r="E15" s="88"/>
       <c r="F15" s="75"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="73"/>
       <c r="E16" s="89"/>
       <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="73"/>
       <c r="C17" t="s">
         <v>247</v>
       </c>
       <c r="E17" s="89"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="73"/>
       <c r="C18" t="s">
         <v>384</v>
       </c>
       <c r="E18" s="89"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="73"/>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="88"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="73"/>
       <c r="C20" s="10" t="s">
         <v>448</v>
       </c>
       <c r="E20" s="88"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:8">
       <c r="A21" s="73"/>
       <c r="C21" t="s">
         <v>623</v>
       </c>
       <c r="E21" s="77"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:8">
       <c r="A22" s="73"/>
       <c r="C22" s="10" t="s">
         <v>624</v>
       </c>
       <c r="E22" s="89"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:8">
       <c r="A23" s="72"/>
       <c r="C23" s="67" t="s">
         <v>203</v>
       </c>
       <c r="E23" s="88"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:8">
       <c r="A24" s="72"/>
       <c r="C24" t="s">
         <v>190</v>
       </c>
       <c r="E24" s="89"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:8">
       <c r="A25" s="72"/>
       <c r="C25" t="s">
         <v>396</v>
       </c>
       <c r="E25" s="89"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:8">
       <c r="A26" s="73"/>
       <c r="C26" t="s">
         <v>239</v>
       </c>
       <c r="E26" s="88"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:8">
       <c r="A27" s="73"/>
       <c r="C27" t="s">
         <v>243</v>
       </c>
       <c r="E27" s="89"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:8">
       <c r="A28" s="72"/>
       <c r="E28" s="88"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:8">
       <c r="A29" s="72"/>
       <c r="E29" s="89"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:8">
       <c r="A30" s="3"/>
       <c r="E30" s="89"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:8">
       <c r="A31" s="57"/>
       <c r="E31" s="89"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:8">
       <c r="A32" s="3"/>
       <c r="E32" s="89"/>
     </row>
@@ -43515,8 +43972,8 @@
       <c r="E44" s="89"/>
     </row>
   </sheetData>
-  <sortState ref="C17:C26">
-    <sortCondition ref="C16"/>
+  <sortState ref="H13:H19">
+    <sortCondition ref="H13"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -43533,7 +43990,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" activeCellId="1" sqref="B3 B21"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -43679,7 +44136,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="102" t="s">
         <v>99</v>
       </c>
     </row>
@@ -43713,7 +44170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -44016,7 +44473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -44294,7 +44751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -44575,8 +45032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -44989,10 +45446,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -45039,116 +45496,112 @@
     <row r="8" spans="2:3" ht="15.75" customHeight="1">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="2:3" ht="15.75" customHeight="1">
-      <c r="C9" s="3" t="s">
+    <row r="10" spans="2:3" ht="15.75" customHeight="1">
+      <c r="C10" s="109" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.75" customHeight="1">
-      <c r="C10" s="3" t="s">
+    <row r="11" spans="2:3" ht="15.75" customHeight="1">
+      <c r="C11" s="108" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.75" customHeight="1">
+      <c r="C12" s="102" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.75" customHeight="1">
+      <c r="C13" s="102" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15.75" customHeight="1">
+      <c r="C14" s="102" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B15" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="15.75" customHeight="1">
+      <c r="C16" s="102" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C17" s="109" t="s">
+        <v>415</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C18" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="D18" s="109" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15.75" customHeight="1">
-      <c r="C11" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.75" customHeight="1">
-      <c r="C12" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.75" customHeight="1">
-      <c r="C13" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="15.75" customHeight="1">
-      <c r="C14" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B15" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="15.75" customHeight="1">
-      <c r="C16" s="3" t="s">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D19" s="109" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C17" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C18" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C19" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C20" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="C21" s="4" t="s">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D20" s="102" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="B23" s="64" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="B24" s="64" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="C26" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="C27" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="C28" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="C29" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="C30" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>69</v>
       </c>
@@ -45159,145 +45612,180 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="C32" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:4" ht="15.75" customHeight="1">
       <c r="C33" s="3" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:4" ht="15.75" customHeight="1">
       <c r="C34" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:4" ht="15.75" customHeight="1">
       <c r="C35" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15.75" customHeight="1">
+    <row r="36" spans="2:4" ht="15.75" customHeight="1">
       <c r="C36" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="15.75" customHeight="1">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1">
       <c r="C37" s="4" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="15.75" customHeight="1">
+    <row r="39" spans="2:4" ht="15.75" customHeight="1">
       <c r="B39" s="6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="15.75" customHeight="1">
+    <row r="40" spans="2:4" ht="15.75" customHeight="1">
       <c r="B40" s="4" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15.75" customHeight="1">
+    <row r="41" spans="2:4" ht="15.75" customHeight="1">
       <c r="B41" s="64" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="15.75" customHeight="1">
+    <row r="42" spans="2:4" ht="15.75" customHeight="1">
       <c r="B42" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="15.75" customHeight="1">
+    <row r="43" spans="2:4" ht="15.75" customHeight="1">
       <c r="B43" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="15.75" customHeight="1">
+    <row r="45" spans="2:4" ht="15.75" customHeight="1">
       <c r="B45" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="15.75" customHeight="1">
-      <c r="C47" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="15.75" customHeight="1">
-      <c r="C48" s="4" t="s">
+    <row r="47" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C47" s="105" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C48" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="D48" s="103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C49" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" ht="15.75" customHeight="1">
-      <c r="D49" s="4" t="s">
-        <v>260</v>
+      <c r="D49" s="103">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15.75" customHeight="1">
-      <c r="D50" s="4" t="s">
-        <v>373</v>
+      <c r="C50" s="105" t="s">
+        <v>447</v>
+      </c>
+      <c r="D50" s="103">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C51" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>457</v>
+      <c r="C51" s="106" t="s">
+        <v>460</v>
+      </c>
+      <c r="D51" s="103">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>460</v>
+      <c r="C52" s="105" t="s">
+        <v>462</v>
+      </c>
+      <c r="D52" s="103">
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="15.75" customHeight="1">
-      <c r="D53" s="4" t="s">
+      <c r="C53" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="D53" s="103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C54" s="107" t="s">
+        <v>469</v>
+      </c>
+      <c r="D54" s="103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C55" s="107" t="s">
+        <v>472</v>
+      </c>
+      <c r="D55" s="103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C56" s="105" t="s">
+        <v>473</v>
+      </c>
+      <c r="D56" s="103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="15.75" customHeight="1">
+      <c r="C57" s="105" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C54" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C55" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C56" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C57" s="4" t="s">
-        <v>467</v>
+      <c r="D57" s="103">
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C58" s="4" t="s">
-        <v>468</v>
+      <c r="D58" s="103">
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C59" s="3" t="s">
-        <v>469</v>
+      <c r="D59" s="103">
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C60" s="3" t="s">
-        <v>472</v>
+      <c r="D60" s="103">
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.75" customHeight="1">
-      <c r="C61" s="4" t="s">
-        <v>473</v>
+      <c r="D61" s="103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="15.75" customHeight="1">
+      <c r="D62" s="103">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -45838,7 +46326,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -45848,7 +46336,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="76" t="s">
         <v>429</v>
       </c>
     </row>
@@ -45858,7 +46346,7 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="75" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -45866,7 +46354,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="75" t="s">
         <v>568</v>
       </c>
     </row>
@@ -45876,7 +46364,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="75" t="s">
         <v>582</v>
       </c>
     </row>
@@ -45943,6 +46431,9 @@
       <c r="B15" s="3" t="s">
         <v>529</v>
       </c>
+      <c r="F15" s="102" t="s">
+        <v>551</v>
+      </c>
       <c r="I15" s="10">
         <v>5</v>
       </c>
@@ -45954,6 +46445,12 @@
       <c r="B16" s="3" t="s">
         <v>539</v>
       </c>
+      <c r="E16" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="102" t="s">
+        <v>552</v>
+      </c>
       <c r="I16" s="10">
         <v>6</v>
       </c>
@@ -45965,6 +46462,9 @@
       <c r="B17" s="4" t="s">
         <v>557</v>
       </c>
+      <c r="F17" s="102" t="s">
+        <v>553</v>
+      </c>
       <c r="I17" s="10">
         <v>7</v>
       </c>
@@ -45973,6 +46473,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="F18" s="102" t="s">
+        <v>554</v>
+      </c>
       <c r="I18" s="10">
         <v>8</v>
       </c>
